--- a/F_dataset/DUD-E/AKT2/AKT2_preprocessing/AKT2_test.xlsx
+++ b/F_dataset/DUD-E/AKT2/AKT2_preprocessing/AKT2_test.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V34"/>
+  <dimension ref="A1:V33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -604,7 +604,7 @@
       <c r="T2" t="inlineStr"/>
       <c r="U2" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FE58CF0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3D9F50&gt;</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
@@ -616,7 +616,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>CHEMBL494088</t>
+          <t>CHEMBL388184</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -624,12 +624,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CCn1c(-c2nonc2N)nc2c(C#CC(C)(C)O)ncc(OCC3CCNC3)c21</t>
+          <t>NC(=O)Nc1ccc2c(c1)/C(=C/c1cc(C(=O)NCCN3CCOCC3)c[nH]1)C(=O)N2</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>CCn1c(-c2nonc2N)nc2c(C#CC(C)(C)O)ncc(OCC3CCNC3)c21</t>
+          <t>NC(=O)Nc1ccc2c(c1)/C(=C/c1cc(C(=O)NCCN3CCOCC3)c[nH]1)C(=O)N2</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -643,25 +643,25 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>411.47</v>
+        <v>424.46</v>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I3" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K3" t="n">
         <v>4</v>
       </c>
       <c r="L3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M3" t="n">
-        <v>137.14</v>
+        <v>141.58</v>
       </c>
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr"/>
@@ -672,7 +672,7 @@
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FE5A960&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3D9B60&gt;</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
@@ -740,7 +740,7 @@
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FE599A0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3D9620&gt;</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
@@ -752,7 +752,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>CHEMBL512135</t>
+          <t>CHEMBL404554</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -760,12 +760,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>NCC(NC(=O)c1cc(Br)c(-c2ccnc3[nH]ccc23)s1)c1ccccc1</t>
+          <t>CSc1ncc2cc(-c3ccccc3)c(-c3ccc(CN4CCC(c5cc(-c6ccncc6)[nH]n5)CC4)cc3)nc2n1</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NCC(NC(=O)c1cc(Br)c(-c2ccnc3[nH]ccc23)s1)c1ccccc1</t>
+          <t>CSc1ncc2cc(-c3ccccc3)c(-c3ccc(CN4CCC(c5cc(-c6ccncc6)[nH]n5)CC4)cc3)nc2n1</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -779,25 +779,25 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>441.35</v>
+        <v>569.74</v>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J5" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K5" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="L5" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M5" t="n">
-        <v>83.8</v>
+        <v>83.48</v>
       </c>
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr"/>
@@ -808,7 +808,7 @@
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FE58F90&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D4BFD10&gt;</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
@@ -820,7 +820,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>CHEMBL272292</t>
+          <t>CHEMBL512135</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -828,12 +828,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>O=C(O)c1ccc2nc(-c3ccc(CN4CCC(n5c(=O)[nH]c6ccccc65)CC4)cc3)c(-c3ccccc3)nc2c1</t>
+          <t>NCC(NC(=O)c1cc(Br)c(-c2ccnc3[nH]ccc23)s1)c1ccccc1</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>O=C(O)c1ccc2nc(-c3ccc(CN4CCC(n5c(=O)[nH]c6ccccc65)CC4)cc3)c(-c3ccccc3)nc2c1</t>
+          <t>NCC(NC(=O)c1cc(Br)c(-c2ccnc3[nH]ccc23)s1)c1ccccc1</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -847,25 +847,25 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>555.64</v>
+        <v>441.35</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I6" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K6" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="L6" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M6" t="n">
-        <v>104.11</v>
+        <v>83.8</v>
       </c>
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr"/>
@@ -876,7 +876,7 @@
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FE80510&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D4BFAE0&gt;</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
@@ -888,7 +888,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>CHEMBL228867</t>
+          <t>CHEMBL260670</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -896,44 +896,44 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>C/C(=C1/C(=O)Nc2ccc(NC(N)=O)cc21)c1cc(CNC(=O)CCN2CCCCC2)c[nH]1</t>
+          <t>c1ccc(-c2cc3cccnc3nc2-c2ccc(CN3CCC(c4n[nH]c(-c5ccccn5)n4)CC3)cc2)cc1</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>C/C(=C1/C(=O)Nc2ccc(NC(N)=O)cc21)c1cc(CNC(=O)CCN2CCCCC2)c[nH]1</t>
+          <t>c1ccc(-c2cc3cccnc3nc2-c2ccc(CN3CCC(c4n[nH]c(-c5ccccn5)n4)CC3)cc2)cc1</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>G2 active</t>
+          <t>G1 active</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Train</t>
+          <t>G1</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>450.54</v>
+        <v>523.64</v>
       </c>
       <c r="H7" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J7" t="n">
+        <v>6</v>
+      </c>
+      <c r="K7" t="n">
         <v>7</v>
       </c>
-      <c r="K7" t="n">
-        <v>4</v>
-      </c>
       <c r="L7" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M7" t="n">
-        <v>132.35</v>
+        <v>83.48</v>
       </c>
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr"/>
@@ -944,7 +944,7 @@
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FE807B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D4BF060&gt;</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
@@ -956,7 +956,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>CHEMBL228810</t>
+          <t>CHEMBL272292</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -964,44 +964,44 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>C/C(=C1/C(=O)Nc2ccc(NC(N)=O)cc21)c1cc(CNC(=O)C2CCN(C)CC2)c[nH]1</t>
+          <t>O=C(O)c1ccc2nc(-c3ccc(CN4CCC(n5c(=O)[nH]c6ccccc65)CC4)cc3)c(-c3ccccc3)nc2c1</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>C/C(=C1/C(=O)Nc2ccc(NC(N)=O)cc21)c1cc(CNC(=O)C2CCN(C)CC2)c[nH]1</t>
+          <t>O=C(O)c1ccc2nc(-c3ccc(CN4CCC(n5c(=O)[nH]c6ccccc65)CC4)cc3)c(-c3ccccc3)nc2c1</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>G2 active</t>
+          <t>G1 active</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Train</t>
+          <t>G1</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>436.52</v>
+        <v>555.64</v>
       </c>
       <c r="H8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I8" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K8" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="L8" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M8" t="n">
-        <v>132.35</v>
+        <v>104.11</v>
       </c>
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FE80EB0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D4BEB20&gt;</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
@@ -1024,7 +1024,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>CHEMBL522351</t>
+          <t>CHEMBL228867</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -1032,12 +1032,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>CCn1c(-c2nonc2N)nc2c(C#CC(C)(C)O)ncc(OCCCNC[C@H](O)CO)c21</t>
+          <t>C/C(=C1/C(=O)Nc2ccc(NC(N)=O)cc21)c1cc(CNC(=O)CCN2CCCCC2)c[nH]1</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>CCn1c(-c2nonc2N)nc2c(C#CC(C)(C)O)ncc(OCCCNC[C@H](O)CO)c21</t>
+          <t>C/C(=C1/C(=O)Nc2ccc(NC(N)=O)cc21)c1cc(CNC(=O)CCN2CCCCC2)c[nH]1</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -1051,25 +1051,25 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>459.51</v>
+        <v>450.54</v>
       </c>
       <c r="H9" t="n">
         <v>5</v>
       </c>
       <c r="I9" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="J9" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="K9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M9" t="n">
-        <v>177.6</v>
+        <v>132.35</v>
       </c>
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr"/>
@@ -1080,7 +1080,7 @@
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FE81850&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D4BE960&gt;</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
@@ -1092,7 +1092,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>CHEMBL506077</t>
+          <t>CHEMBL228810</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -1100,12 +1100,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Oc1nnc2c3cc(-c4ccccc4)c(-c4ccc(CN5CCC(c6n[nH]c(-c7ccccn7)n6)CC5)cc4)nc3ccn12</t>
+          <t>C/C(=C1/C(=O)Nc2ccc(NC(N)=O)cc21)c1cc(CNC(=O)C2CCN(C)CC2)c[nH]1</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Oc1nnc2c3cc(-c4ccccc4)c(-c4ccc(CN5CCC(c6n[nH]c(-c7ccccn7)n6)CC5)cc4)nc3ccn12</t>
+          <t>C/C(=C1/C(=O)Nc2ccc(NC(N)=O)cc21)c1cc(CNC(=O)C2CCN(C)CC2)c[nH]1</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1119,25 +1119,25 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>579.67</v>
+        <v>436.52</v>
       </c>
       <c r="H10" t="n">
+        <v>5</v>
+      </c>
+      <c r="I10" t="n">
+        <v>4</v>
+      </c>
+      <c r="J10" t="n">
+        <v>5</v>
+      </c>
+      <c r="K10" t="n">
+        <v>4</v>
+      </c>
+      <c r="L10" t="n">
         <v>2</v>
       </c>
-      <c r="I10" t="n">
-        <v>8</v>
-      </c>
-      <c r="J10" t="n">
-        <v>6</v>
-      </c>
-      <c r="K10" t="n">
-        <v>8</v>
-      </c>
-      <c r="L10" t="n">
-        <v>7</v>
-      </c>
       <c r="M10" t="n">
-        <v>121.01</v>
+        <v>132.35</v>
       </c>
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr"/>
@@ -1148,7 +1148,7 @@
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FE821F0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D4BE1F0&gt;</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
@@ -1160,7 +1160,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>CHEMBL259753</t>
+          <t>CHEMBL506077</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -1168,12 +1168,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>c1ccc(-c2cc3ncccc3nc2-c2ccc(CN3CCC(c4n[nH]c(-c5ccccn5)n4)CC3)cc2)cc1</t>
+          <t>Oc1nnc2c3cc(-c4ccccc4)c(-c4ccc(CN5CCC(c6n[nH]c(-c7ccccn7)n6)CC5)cc4)nc3ccn12</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>c1ccc(-c2cc3ncccc3nc2-c2ccc(CN3CCC(c4n[nH]c(-c5ccccn5)n4)CC3)cc2)cc1</t>
+          <t>Oc1nnc2c3cc(-c4ccccc4)c(-c4ccc(CN5CCC(c6n[nH]c(-c7ccccn7)n6)CC5)cc4)nc3ccn12</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1187,25 +1187,25 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>523.64</v>
+        <v>579.67</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J11" t="n">
         <v>6</v>
       </c>
       <c r="K11" t="n">
+        <v>8</v>
+      </c>
+      <c r="L11" t="n">
         <v>7</v>
       </c>
-      <c r="L11" t="n">
-        <v>6</v>
-      </c>
       <c r="M11" t="n">
-        <v>83.48</v>
+        <v>121.01</v>
       </c>
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr"/>
@@ -1216,7 +1216,7 @@
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FE823B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D4BDAF0&gt;</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
@@ -1228,7 +1228,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>CHEMBL408151</t>
+          <t>CHEMBL253693</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -1236,12 +1236,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>O=c1[nH]c2ccccc2n1C1CCN(Cc2ccc(-c3nc4cc(-c5nn[nH]n5)ccc4nc3-c3ccccc3)cc2)CC1</t>
+          <t>CSc1ncc2cc(-c3ccccc3)c(-c3ccc(CN4CCC(n5ncc6c(N)ncnc65)CC4)cc3)nc2n1</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>O=c1[nH]c2ccccc2n1C1CCN(Cc2ccc(-c3nc4cc(-c5nn[nH]n5)ccc4nc3-c3ccccc3)cc2)CC1</t>
+          <t>CSc1ncc2cc(-c3ccccc3)c(-c3ccc(CN4CCC(n5ncc6c(N)ncnc65)CC4)cc3)nc2n1</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1255,25 +1255,25 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>579.67</v>
+        <v>559.7</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J12" t="n">
         <v>6</v>
       </c>
       <c r="K12" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L12" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M12" t="n">
-        <v>121.27</v>
+        <v>111.53</v>
       </c>
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr"/>
@@ -1284,7 +1284,7 @@
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FE830D0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D4BD0E0&gt;</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
@@ -1352,7 +1352,7 @@
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FE83BC0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D4BD310&gt;</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
@@ -1420,7 +1420,7 @@
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FE82E30&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D4BE500&gt;</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
@@ -1432,25 +1432,25 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>CHEMBL407733</t>
+          <t>C40148097</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>c1ccc(-c2cc3cccnc3nc2-c2ccc(CN3CCC(c4cc(-c5cccnc5)[nH]n4)CC3)cc2)cc1</t>
+          <t>CNC(=S)N1N=C([C@H]2C(=O)[NH+]=c3ccc(Cl)cc3=C2c2ccccc2)C[C@@H]1c1ccccc1F</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>c1ccc(-c2cc3cccnc3nc2-c2ccc(CN3CCC(c4cc(-c5cccnc5)[nH]n4)CC3)cc2)cc1</t>
+          <t>CNC(=S)N1N=C([C@H]2C(=O)[NH+]=c3ccc(Cl)cc3=C2c2ccccc2)C[C@@H]1c1ccccc1F</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>G2 active</t>
+          <t>G2 inactive</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1459,25 +1459,25 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>522.66</v>
+        <v>492</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I15" t="n">
+        <v>4</v>
+      </c>
+      <c r="J15" t="n">
+        <v>3</v>
+      </c>
+      <c r="K15" t="n">
         <v>5</v>
       </c>
-      <c r="J15" t="n">
-        <v>6</v>
-      </c>
-      <c r="K15" t="n">
-        <v>7</v>
-      </c>
       <c r="L15" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M15" t="n">
-        <v>70.59</v>
+        <v>58.67</v>
       </c>
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr"/>
@@ -1488,7 +1488,7 @@
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FE810E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3CC200&gt;</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
@@ -1500,7 +1500,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>C40148097</t>
+          <t>C36202507</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -1508,12 +1508,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>CNC(=S)N1N=C([C@H]2C(=O)[NH+]=c3ccc(Cl)cc3=C2c2ccccc2)C[C@@H]1c1ccccc1F</t>
+          <t>Cc1ccc(C[NH+](Cc2ccc(C(O)(c3ccccc3C)c3ccccc3C)o2)C[C@@H]2CCCO2)o1</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>CNC(=S)N1N=C([C@H]2C(=O)[NH+]=c3ccc(Cl)cc3=C2c2ccccc2)C[C@@H]1c1ccccc1F</t>
+          <t>Cc1ccc(C[NH+](Cc2ccc(C(O)(c3ccccc3C)c3ccccc3C)o2)C[C@@H]2CCCO2)o1</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>492</v>
+        <v>486.63</v>
       </c>
       <c r="H16" t="n">
         <v>2</v>
@@ -1536,16 +1536,16 @@
         <v>4</v>
       </c>
       <c r="J16" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="K16" t="n">
         <v>5</v>
       </c>
       <c r="L16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M16" t="n">
-        <v>58.67</v>
+        <v>60.18</v>
       </c>
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr"/>
@@ -1556,7 +1556,7 @@
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FEB86D0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3D9E00&gt;</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
@@ -1568,7 +1568,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>C36202507</t>
+          <t>C01827392</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -1576,12 +1576,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Cc1ccc(C[NH+](Cc2ccc(C(O)(c3ccccc3C)c3ccccc3C)o2)C[C@@H]2CCCO2)o1</t>
+          <t>COc1ccc(-n2c(SCC(=O)Nc3cccc(Cl)c3C)nc3sc4c(c3c2=O)CCCC4)cc1</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Cc1ccc(C[NH+](Cc2ccc(C(O)(c3ccccc3C)c3ccccc3C)o2)C[C@@H]2CCCO2)o1</t>
+          <t>COc1ccc(-n2c(SCC(=O)Nc3cccc(Cl)c3C)nc3sc4c(c3c2=O)CCCC4)cc1</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1595,16 +1595,16 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>486.63</v>
+        <v>526.08</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J17" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="K17" t="n">
         <v>5</v>
@@ -1613,7 +1613,7 @@
         <v>4</v>
       </c>
       <c r="M17" t="n">
-        <v>60.18</v>
+        <v>73.22</v>
       </c>
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr"/>
@@ -1624,7 +1624,7 @@
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FEB8890&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3DA420&gt;</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
@@ -1636,7 +1636,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>C01827392</t>
+          <t>C65799284</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -1644,12 +1644,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>COc1ccc(-n2c(SCC(=O)Nc3cccc(Cl)c3C)nc3sc4c(c3c2=O)CCCC4)cc1</t>
+          <t>O=C(NNc1ccc(-n2cccn2)nn1)Nc1ccc(N2CCCC2)[nH+]c1</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>COc1ccc(-n2c(SCC(=O)Nc3cccc(Cl)c3C)nc3sc4c(c3c2=O)CCCC4)cc1</t>
+          <t>O=C(NNc1ccc(-n2cccn2)nn1)Nc1ccc(N2CCCC2)[nH+]c1</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1663,25 +1663,25 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>526.08</v>
+        <v>366.41</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I18" t="n">
+        <v>6</v>
+      </c>
+      <c r="J18" t="n">
         <v>5</v>
       </c>
-      <c r="J18" t="n">
-        <v>6</v>
-      </c>
       <c r="K18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M18" t="n">
-        <v>73.22</v>
+        <v>114.14</v>
       </c>
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr"/>
@@ -1692,7 +1692,7 @@
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FEB87B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3D98C0&gt;</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
@@ -1704,7 +1704,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>C65799284</t>
+          <t>C05393058</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -1712,12 +1712,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>O=C(NNc1ccc(-n2cccn2)nn1)Nc1ccc(N2CCCC2)[nH+]c1</t>
+          <t>O=C1c2ccccc2C(=O)c2c(O)c(NCCC[NH+](CCO)CCO)cc(O)c21</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>O=C(NNc1ccc(-n2cccn2)nn1)Nc1ccc(N2CCCC2)[nH+]c1</t>
+          <t>O=C1c2ccccc2C(=O)c2c(O)c(NCCC[NH+](CCO)CCO)cc(O)c21</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1731,25 +1731,25 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>366.41</v>
+        <v>401.44</v>
       </c>
       <c r="H19" t="n">
+        <v>6</v>
+      </c>
+      <c r="I19" t="n">
+        <v>7</v>
+      </c>
+      <c r="J19" t="n">
+        <v>9</v>
+      </c>
+      <c r="K19" t="n">
         <v>3</v>
-      </c>
-      <c r="I19" t="n">
-        <v>6</v>
-      </c>
-      <c r="J19" t="n">
-        <v>5</v>
-      </c>
-      <c r="K19" t="n">
-        <v>4</v>
       </c>
       <c r="L19" t="n">
         <v>3</v>
       </c>
       <c r="M19" t="n">
-        <v>114.14</v>
+        <v>131.53</v>
       </c>
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr"/>
@@ -1760,7 +1760,7 @@
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FEBAF10&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3D8350&gt;</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
@@ -1772,7 +1772,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>C05393058</t>
+          <t>C67293254</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -1780,12 +1780,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>O=C1c2ccccc2C(=O)c2c(O)c(NCCC[NH+](CCO)CCO)cc(O)c21</t>
+          <t>NC(=O)c1ccc(/[NH+]=c2\oc3cc(O)ccc3cc2C(=O)Nc2ccccn2)cc1</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>O=C1c2ccccc2C(=O)c2c(O)c(NCCC[NH+](CCO)CCO)cc(O)c21</t>
+          <t>NC(=O)c1ccc(/[NH+]=c2\oc3cc(O)ccc3cc2C(=O)Nc2ccccn2)cc1</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1799,25 +1799,25 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>401.44</v>
+        <v>401.4</v>
       </c>
       <c r="H20" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I20" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J20" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="K20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M20" t="n">
-        <v>131.53</v>
+        <v>132.42</v>
       </c>
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr"/>
@@ -1828,7 +1828,7 @@
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FEB8A50&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3FD4D0&gt;</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
@@ -1840,7 +1840,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>C67293254</t>
+          <t>C39500580</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -1848,12 +1848,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>NC(=O)c1ccc(/[NH+]=c2\oc3cc(O)ccc3cc2C(=O)Nc2ccccn2)cc1</t>
+          <t>CC(C)[C@@H]1c2[nH]c3ccccc3c2CCN1C(=O)CSC1=CC=C2N=[NH+][C@H](c3cccnc3)N2N1</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>NC(=O)c1ccc(/[NH+]=c2\oc3cc(O)ccc3cc2C(=O)Nc2ccccn2)cc1</t>
+          <t>CC(C)[C@@H]1c2[nH]c3ccccc3c2CCN1C(=O)CSC1=CC=C2N=[NH+][C@H](c3cccnc3)N2N1</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1867,25 +1867,25 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>401.4</v>
+        <v>486.63</v>
       </c>
       <c r="H21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I21" t="n">
         <v>5</v>
       </c>
       <c r="J21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K21" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M21" t="n">
-        <v>132.42</v>
+        <v>90.59</v>
       </c>
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr"/>
@@ -1896,7 +1896,7 @@
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FEBBD80&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3FD700&gt;</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
@@ -1908,7 +1908,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>C39500580</t>
+          <t>C63479973</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -1916,12 +1916,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>CC(C)[C@@H]1c2[nH]c3ccccc3c2CCN1C(=O)CSC1=CC=C2N=[NH+][C@H](c3cccnc3)N2N1</t>
+          <t>Cc1ccc2c(c1C)NC(=O)[C@]21N[C@@H](CC2=c3ccccc3=[NH+]C2)[C@H]2C(=O)N(c3ccccc3)C(=O)[C@H]21</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>CC(C)[C@@H]1c2[nH]c3ccccc3c2CCN1C(=O)CSC1=CC=C2N=[NH+][C@H](c3cccnc3)N2N1</t>
+          <t>Cc1ccc2c(c1C)NC(=O)[C@]21N[C@@H](CC2=c3ccccc3=[NH+]C2)[C@H]2C(=O)N(c3ccccc3)C(=O)[C@H]21</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1935,25 +1935,25 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>486.63</v>
+        <v>491.57</v>
       </c>
       <c r="H22" t="n">
         <v>3</v>
       </c>
       <c r="I22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K22" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L22" t="n">
         <v>3</v>
       </c>
       <c r="M22" t="n">
-        <v>90.59</v>
+        <v>92.48</v>
       </c>
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr"/>
@@ -1964,7 +1964,7 @@
       <c r="T22" t="inlineStr"/>
       <c r="U22" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FEBBB50&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3FEFF0&gt;</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
@@ -1976,7 +1976,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>C63479973</t>
+          <t>C40982444</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -1984,12 +1984,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Cc1ccc2c(c1C)NC(=O)[C@]21N[C@@H](CC2=c3ccccc3=[NH+]C2)[C@H]2C(=O)N(c3ccccc3)C(=O)[C@H]21</t>
+          <t>CCCCOc1ccc(Br)cc1[C@H]1C(C(N)=O)=C(C)Nc2nc(SCCC)nn21</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Cc1ccc2c(c1C)NC(=O)[C@]21N[C@@H](CC2=c3ccccc3=[NH+]C2)[C@H]2C(=O)N(c3ccccc3)C(=O)[C@H]21</t>
+          <t>CCCCOc1ccc(Br)cc1[C@H]1C(C(N)=O)=C(C)Nc2nc(SCCC)nn21</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -2003,25 +2003,25 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>491.57</v>
+        <v>480.43</v>
       </c>
       <c r="H23" t="n">
+        <v>2</v>
+      </c>
+      <c r="I23" t="n">
+        <v>6</v>
+      </c>
+      <c r="J23" t="n">
+        <v>9</v>
+      </c>
+      <c r="K23" t="n">
         <v>3</v>
       </c>
-      <c r="I23" t="n">
-        <v>4</v>
-      </c>
-      <c r="J23" t="n">
-        <v>3</v>
-      </c>
-      <c r="K23" t="n">
-        <v>7</v>
-      </c>
       <c r="L23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M23" t="n">
-        <v>92.48</v>
+        <v>95.06</v>
       </c>
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr"/>
@@ -2032,7 +2032,7 @@
       <c r="T23" t="inlineStr"/>
       <c r="U23" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FEB8C80&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3FFF40&gt;</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
@@ -2044,7 +2044,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>C40982444</t>
+          <t>C39977012</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -2052,12 +2052,12 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>CCCCOc1ccc(Br)cc1[C@H]1C(C(N)=O)=C(C)Nc2nc(SCCC)nn21</t>
+          <t>O=S(=O)(/N=C1\N=c2ccccc2=[NH+][C@@H]1Nc1ccc(Cl)c(Cl)c1)c1cccc2nsnc12</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>CCCCOc1ccc(Br)cc1[C@H]1C(C(N)=O)=C(C)Nc2nc(SCCC)nn21</t>
+          <t>O=S(=O)(/N=C1\N=c2ccccc2=[NH+][C@@H]1Nc1ccc(Cl)c(Cl)c1)c1cccc2nsnc12</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -2067,29 +2067,29 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Train</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>480.43</v>
+        <v>504.4</v>
       </c>
       <c r="H24" t="n">
         <v>2</v>
       </c>
       <c r="I24" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J24" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="K24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L24" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M24" t="n">
-        <v>95.06</v>
+        <v>110.64</v>
       </c>
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr"/>
@@ -2100,7 +2100,7 @@
       <c r="T24" t="inlineStr"/>
       <c r="U24" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FEB99A0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3FFB50&gt;</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
@@ -2112,7 +2112,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>C39977012</t>
+          <t>C19278135</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -2120,12 +2120,12 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>O=S(=O)(/N=C1\N=c2ccccc2=[NH+][C@@H]1Nc1ccc(Cl)c(Cl)c1)c1cccc2nsnc12</t>
+          <t>Cc1ccc([C@@H]([NH3+])CN2C(=O)NC3(CCCC3)C2=O)cc1</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>O=S(=O)(/N=C1\N=c2ccccc2=[NH+][C@@H]1Nc1ccc(Cl)c(Cl)c1)c1cccc2nsnc12</t>
+          <t>Cc1ccc([C@@H]([NH3+])CN2C(=O)NC3(CCCC3)C2=O)cc1</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -2139,25 +2139,25 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>504.4</v>
+        <v>288.37</v>
       </c>
       <c r="H25" t="n">
         <v>2</v>
       </c>
       <c r="I25" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L25" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M25" t="n">
-        <v>110.64</v>
+        <v>77.05</v>
       </c>
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr"/>
@@ -2168,7 +2168,7 @@
       <c r="T25" t="inlineStr"/>
       <c r="U25" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FEB8900&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3FEF10&gt;</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
@@ -2180,7 +2180,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>C19278135</t>
+          <t>C04769474</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -2188,12 +2188,12 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Cc1ccc([C@@H]([NH3+])CN2C(=O)NC3(CCCC3)C2=O)cc1</t>
+          <t>COc1cc([C@H]2c3cc(O)c(OC)cc3C[C@H](C(=O)[O-])[C@@H]2CO)ccc1O</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Cc1ccc([C@@H]([NH3+])CN2C(=O)NC3(CCCC3)C2=O)cc1</t>
+          <t>COc1cc([C@H]2c3cc(O)c(OC)cc3C[C@H](C(=O)[O-])[C@@H]2CO)ccc1O</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -2207,25 +2207,25 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>288.37</v>
+        <v>373.38</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I26" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J26" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K26" t="n">
         <v>3</v>
       </c>
       <c r="L26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M26" t="n">
-        <v>77.05</v>
+        <v>119.28</v>
       </c>
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr"/>
@@ -2236,7 +2236,7 @@
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FEB9FC0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3FDA80&gt;</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
@@ -2248,7 +2248,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>C04769474</t>
+          <t>C39684195</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -2256,12 +2256,12 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>COc1cc([C@H]2c3cc(O)c(OC)cc3C[C@H](C(=O)[O-])[C@@H]2CO)ccc1O</t>
+          <t>Cc1cccc2c(CCNC(=O)[C@@H]3CN(C(=O)[C@@H]4COc5ccccc5O4)CC34CC[NH2+]CC4)c[nH]c12</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>COc1cc([C@H]2c3cc(O)c(OC)cc3C[C@H](C(=O)[O-])[C@@H]2CO)ccc1O</t>
+          <t>Cc1cccc2c(CCNC(=O)[C@@H]3CN(C(=O)[C@@H]4COc5ccccc5O4)CC34CC[NH2+]CC4)c[nH]c12</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -2275,25 +2275,25 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>373.38</v>
+        <v>503.62</v>
       </c>
       <c r="H27" t="n">
         <v>3</v>
       </c>
       <c r="I27" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J27" t="n">
         <v>5</v>
       </c>
       <c r="K27" t="n">
+        <v>6</v>
+      </c>
+      <c r="L27" t="n">
         <v>3</v>
       </c>
-      <c r="L27" t="n">
-        <v>2</v>
-      </c>
       <c r="M27" t="n">
-        <v>119.28</v>
+        <v>100.27</v>
       </c>
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr"/>
@@ -2304,7 +2304,7 @@
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FEB9EE0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3FCD60&gt;</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
@@ -2316,7 +2316,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>C39684195</t>
+          <t>C44539164</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -2324,12 +2324,12 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Cc1cccc2c(CCNC(=O)[C@@H]3CN(C(=O)[C@@H]4COc5ccccc5O4)CC34CC[NH2+]CC4)c[nH]c12</t>
+          <t>C[NH+]1CCC[C@H](CNc2nc3c(cc2C(N)=S)CCC3)C1</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Cc1cccc2c(CCNC(=O)[C@@H]3CN(C(=O)[C@@H]4COc5ccccc5O4)CC34CC[NH2+]CC4)c[nH]c12</t>
+          <t>C[NH+]1CCC[C@H](CNc2nc3c(cc2C(N)=S)CCC3)C1</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -2343,7 +2343,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>503.62</v>
+        <v>305.47</v>
       </c>
       <c r="H28" t="n">
         <v>3</v>
@@ -2352,16 +2352,16 @@
         <v>4</v>
       </c>
       <c r="J28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K28" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L28" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M28" t="n">
-        <v>100.27</v>
+        <v>55.38</v>
       </c>
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr"/>
@@ -2372,7 +2372,7 @@
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FEBAAB0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3FFD80&gt;</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
@@ -2384,7 +2384,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>C44539164</t>
+          <t>C63174692</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -2392,12 +2392,12 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>C[NH+]1CCC[C@H](CNc2nc3c(cc2C(N)=S)CCC3)C1</t>
+          <t>[NH3+][C@@H]1CCC[C@H]1NS(=O)(=O)c1ccc(F)cc1[N+](=O)[O-]</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>C[NH+]1CCC[C@H](CNc2nc3c(cc2C(N)=S)CCC3)C1</t>
+          <t>[NH3+][C@@H]1CCC[C@H]1NS(=O)(=O)c1ccc(F)cc1[N+](=O)[O-]</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -2411,10 +2411,10 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>305.47</v>
+        <v>304.32</v>
       </c>
       <c r="H29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I29" t="n">
         <v>4</v>
@@ -2423,13 +2423,13 @@
         <v>4</v>
       </c>
       <c r="K29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
       <c r="M29" t="n">
-        <v>55.38</v>
+        <v>116.95</v>
       </c>
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr"/>
@@ -2440,7 +2440,7 @@
       <c r="T29" t="inlineStr"/>
       <c r="U29" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FEBA2D0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3FF760&gt;</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
@@ -2452,7 +2452,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>C63174692</t>
+          <t>CHEMBL4782133</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -2460,12 +2460,12 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>[NH3+][C@@H]1CCC[C@H]1NS(=O)(=O)c1ccc(F)cc1[N+](=O)[O-]</t>
+          <t>CN(C)C(=O)c1ccc(Oc2nc(-c3cnc(N)s3)nc(N3CCOCC3)n2)cc1</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>[NH3+][C@@H]1CCC[C@H]1NS(=O)(=O)c1ccc(F)cc1[N+](=O)[O-]</t>
+          <t>CN(C)C(=O)c1ccc(Oc2nc(-c3cnc(N)s3)nc(N3CCOCC3)n2)cc1</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -2475,40 +2475,66 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Test</t>
+          <t>External</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>304.32</v>
+        <v>427.49</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="J30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K30" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L30" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M30" t="n">
-        <v>116.95</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr"/>
-      <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr"/>
-      <c r="S30" t="inlineStr"/>
-      <c r="T30" t="inlineStr"/>
+        <v>119.59</v>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>Inhibition</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>'='</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="Q30" t="n">
+        <v>0</v>
+      </c>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>CHEMBL4701763</t>
+        </is>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>Inhibition of human AKT2 at 1 uM using fluorescently labeled peptide substrate measured after 3 hrs by microfluidic mobility shift assay relative to control</t>
+        </is>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>single protein format</t>
+        </is>
+      </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FEBAC00&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3FF6F0&gt;</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
@@ -2520,7 +2546,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>CHEMBL4782133</t>
+          <t>CHEMBL1813788</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -2528,12 +2554,12 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>CN(C)C(=O)c1ccc(Oc2nc(-c3cnc(N)s3)nc(N3CCOCC3)n2)cc1</t>
+          <t>Cc1cc2nn(-c3ccccc3)c(N)c2c(=O)[nH]1</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>CN(C)C(=O)c1ccc(Oc2nc(-c3cnc(N)s3)nc(N3CCOCC3)n2)cc1</t>
+          <t>Cc1cc2nn(-c3ccccc3)c(N)c2c(=O)[nH]1</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2547,25 +2573,25 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>427.49</v>
+        <v>240.27</v>
       </c>
       <c r="H31" t="n">
+        <v>2</v>
+      </c>
+      <c r="I31" t="n">
+        <v>3</v>
+      </c>
+      <c r="J31" t="n">
         <v>1</v>
       </c>
-      <c r="I31" t="n">
-        <v>9</v>
-      </c>
-      <c r="J31" t="n">
-        <v>5</v>
-      </c>
       <c r="K31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L31" t="n">
         <v>3</v>
       </c>
       <c r="M31" t="n">
-        <v>119.59</v>
+        <v>76.7</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -2583,16 +2609,16 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>CHEMBL4701763</t>
+          <t>CHEMBL1815736</t>
         </is>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>Inhibition of human AKT2 at 1 uM using fluorescently labeled peptide substrate measured after 3 hrs by microfluidic mobility shift assay relative to control</t>
+          <t>Inhibition of AKT2 at 30 uM by microfluidic mobility shift assay</t>
         </is>
       </c>
       <c r="T31" t="inlineStr">
@@ -2602,7 +2628,7 @@
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FEBB760&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3FFA00&gt;</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
@@ -2614,7 +2640,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>CHEMBL1813788</t>
+          <t>CHEMBL188247</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -2622,12 +2648,12 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Cc1cc2nn(-c3ccccc3)c(N)c2c(=O)[nH]1</t>
+          <t>Cc1ccc2c(-c3ccnc(Nc4ccc5c(c4)OCCO5)n3)c(-c3ccc(C(F)(F)F)cc3)nn2n1</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Cc1cc2nn(-c3ccccc3)c(N)c2c(=O)[nH]1</t>
+          <t>Cc1ccc2c(-c3ccnc(Nc4ccc5c(c4)OCCO5)n3)c(-c3ccc(C(F)(F)F)cc3)nn2n1</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2641,25 +2667,25 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>240.27</v>
+        <v>504.47</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J32" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K32" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L32" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M32" t="n">
-        <v>76.7</v>
+        <v>86.45999999999999</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -2677,16 +2703,16 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>1</v>
+        <v>1.58</v>
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>CHEMBL1815736</t>
+          <t>CHEMBL1961877</t>
         </is>
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>Inhibition of AKT2 at 30 uM by microfluidic mobility shift assay</t>
+          <t>GSK_PKIS: AKT2 mean inhibition at 1 uM [Nanosyn]</t>
         </is>
       </c>
       <c r="T32" t="inlineStr">
@@ -2696,7 +2722,7 @@
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FEBA5E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3FFDF0&gt;</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
@@ -2708,7 +2734,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>CHEMBL188247</t>
+          <t>CHEMBL1909354</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -2716,12 +2742,12 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Cc1ccc2c(-c3ccnc(Nc4ccc5c(c4)OCCO5)n3)c(-c3ccc(C(F)(F)F)cc3)nn2n1</t>
+          <t>Cc1cc(-c2ccccn2)cc(C)c1/C=C/c1cncc(-c2nn[nH]n2)c1</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Cc1ccc2c(-c3ccnc(Nc4ccc5c(c4)OCCO5)n3)c(-c3ccc(C(F)(F)F)cc3)nn2n1</t>
+          <t>Cc1cc(-c2ccccn2)cc(C)c1/C=C/c1cncc(-c2nn[nH]n2)c1</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2735,25 +2761,25 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>504.47</v>
+        <v>354.42</v>
       </c>
       <c r="H33" t="n">
         <v>1</v>
       </c>
       <c r="I33" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J33" t="n">
         <v>4</v>
       </c>
       <c r="K33" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M33" t="n">
-        <v>86.45999999999999</v>
+        <v>80.23999999999999</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
@@ -2771,16 +2797,16 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>1.58</v>
+        <v>1.05</v>
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>CHEMBL1961877</t>
+          <t>CHEMBL1961876</t>
         </is>
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>GSK_PKIS: AKT2 mean inhibition at 1 uM [Nanosyn]</t>
+          <t>GSK_PKIS: AKT2 mean inhibition at 0.1 uM [Nanosyn]</t>
         </is>
       </c>
       <c r="T33" t="inlineStr">
@@ -2790,104 +2816,10 @@
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FEBA570&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3FF8B0&gt;</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
-        <is>
-          <t>G2</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>CHEMBL1909354</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>0</v>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>Cc1cc(-c2ccccn2)cc(C)c1/C=C/c1cncc(-c2nn[nH]n2)c1</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>Cc1cc(-c2ccccn2)cc(C)c1/C=C/c1cncc(-c2nn[nH]n2)c1</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G34" t="n">
-        <v>354.42</v>
-      </c>
-      <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>5</v>
-      </c>
-      <c r="J34" t="n">
-        <v>4</v>
-      </c>
-      <c r="K34" t="n">
-        <v>4</v>
-      </c>
-      <c r="L34" t="n">
-        <v>4</v>
-      </c>
-      <c r="M34" t="n">
-        <v>80.23999999999999</v>
-      </c>
-      <c r="N34" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O34" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P34" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q34" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="R34" t="inlineStr">
-        <is>
-          <t>CHEMBL1961876</t>
-        </is>
-      </c>
-      <c r="S34" t="inlineStr">
-        <is>
-          <t>GSK_PKIS: AKT2 mean inhibition at 0.1 uM [Nanosyn]</t>
-        </is>
-      </c>
-      <c r="T34" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-      <c r="U34" t="inlineStr">
-        <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FEBBF40&gt;</t>
-        </is>
-      </c>
-      <c r="V34" t="inlineStr">
         <is>
           <t>G2</t>
         </is>
